--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.12.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.12.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9A8FB6-79DC-2145-8AC5-E1F69B4A8E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D324A18-4604-644E-8583-8071EC80B1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="17940" windowHeight="19320" xr2:uid="{7AE473F5-8EB7-1243-8AE2-DC0FDA4A59BB}"/>
+    <workbookView xWindow="18020" yWindow="460" windowWidth="18000" windowHeight="19320" xr2:uid="{7AE473F5-8EB7-1243-8AE2-DC0FDA4A59BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
   <si>
     <t>harvestDate</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>DirectZol</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>straight</t>
@@ -490,7 +484,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +543,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -558,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -569,25 +563,25 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -596,7 +590,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -607,25 +601,25 @@
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -634,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -645,25 +639,25 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -672,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -683,25 +677,25 @@
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -710,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -721,25 +715,25 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -748,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -759,25 +753,25 @@
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -786,7 +780,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -797,25 +791,25 @@
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -824,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -835,25 +829,25 @@
       <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -862,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -873,25 +867,25 @@
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -900,7 +894,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -911,25 +905,25 @@
       <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -938,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -949,25 +943,25 @@
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -976,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -987,25 +981,25 @@
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1014,7 +1008,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1025,25 +1019,25 @@
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1052,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1063,25 +1057,25 @@
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1090,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1101,25 +1095,25 @@
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1128,7 +1122,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1139,25 +1133,25 @@
       <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1166,7 +1160,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1177,25 +1171,25 @@
       <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1204,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1215,25 +1209,25 @@
       <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1242,7 +1236,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1253,20 +1247,20 @@
       <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.12.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.12.20.xlsx
@@ -83,11 +83,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -116,12 +117,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,23 +190,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,10 +230,10 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -250,7 +245,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -295,30 +290,29 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -336,30 +330,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -377,30 +370,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -418,30 +410,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -459,30 +450,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -500,30 +490,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -541,30 +530,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -582,30 +570,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="n">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -623,30 +610,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -664,30 +650,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -705,30 +690,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="n">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -746,30 +730,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -787,30 +770,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="n">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -828,30 +810,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="n">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -869,30 +850,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -910,30 +890,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4" t="n">
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -951,30 +930,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="n">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -992,30 +970,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="n">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1033,30 +1010,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4" t="n">
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
